--- a/shop_emotion/신제품보만 AF1270W_neutral.xlsx
+++ b/shop_emotion/신제품보만 AF1270W_neutral.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>확률</t>
+          <t>평점</t>
         </is>
       </c>
     </row>
